--- a/clean_student_data.xlsx
+++ b/clean_student_data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CodeNo</t>
+          <t>Student_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -468,2022 +468,2022 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STD_143</t>
+          <t>Student_143</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STD_007</t>
+          <t>Student_007</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STD_098</t>
+          <t>Student_098</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STD_061</t>
+          <t>Student_061</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STD_113</t>
+          <t>Student_113</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="C6" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STD_182</t>
+          <t>Student_182</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STD_198</t>
+          <t>Student_198</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STD_185</t>
+          <t>Student_185</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C9" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STD_010</t>
+          <t>Student_010</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STD_105</t>
+          <t>Student_105</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="C11" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STD_201</t>
+          <t>Student_201</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="C12" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STD_217</t>
+          <t>Student_217</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="C13" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STD_237</t>
+          <t>Student_237</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STD_241</t>
+          <t>Student_241</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STD_068</t>
+          <t>Student_068</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="C16" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STD_225</t>
+          <t>Student_225</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="C17" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STD_195</t>
+          <t>Student_195</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STD_016</t>
+          <t>Student_016</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="C19" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STD_178</t>
+          <t>Student_178</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C20" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STD_025</t>
+          <t>Student_025</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C21" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STD_248</t>
+          <t>Student_248</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="C22" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STD_020</t>
+          <t>Student_020</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STD_115</t>
+          <t>Student_115</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="C24" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>STD_069</t>
+          <t>Student_069</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STD_177</t>
+          <t>Student_177</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="C26" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STD_046</t>
+          <t>Student_046</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="C27" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STD_056</t>
+          <t>Student_056</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STD_011</t>
+          <t>Student_011</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="C29" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STD_031</t>
+          <t>Student_031</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="C30" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STD_121</t>
+          <t>Student_121</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C31" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STD_202</t>
+          <t>Student_202</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="C32" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STD_034</t>
+          <t>Student_034</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>STD_142</t>
+          <t>Student_142</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>STD_220</t>
+          <t>Student_220</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STD_026</t>
+          <t>Student_026</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="C36" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STD_112</t>
+          <t>Student_112</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STD_019</t>
+          <t>Student_019</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>STD_197</t>
+          <t>Student_197</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="C39" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>STD_181</t>
+          <t>Student_181</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="C40" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>STD_160</t>
+          <t>Student_160</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STD_119</t>
+          <t>Student_119</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="C42" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>STD_097</t>
+          <t>Student_097</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="C43" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>STD_109</t>
+          <t>Student_109</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>STD_186</t>
+          <t>Student_186</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C45" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>STD_223</t>
+          <t>Student_223</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="C46" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>STD_017</t>
+          <t>Student_017</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C47" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>STD_147</t>
+          <t>Student_147</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1.7</v>
       </c>
       <c r="C48" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>STD_070</t>
+          <t>Student_070</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="C49" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>STD_174</t>
+          <t>Student_174</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="C50" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>STD_039</t>
+          <t>Student_039</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C51" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>STD_133</t>
+          <t>Student_133</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>STD_226</t>
+          <t>Student_226</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="C53" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>STD_239</t>
+          <t>Student_239</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="C54" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>STD_120</t>
+          <t>Student_120</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>STD_137</t>
+          <t>Student_137</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C56" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>STD_067</t>
+          <t>Student_067</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="C57" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>STD_218</t>
+          <t>Student_218</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="C58" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STD_155</t>
+          <t>Student_155</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>STD_169</t>
+          <t>Student_169</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>STD_230</t>
+          <t>Student_230</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="C61" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>STD_234</t>
+          <t>Student_234</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="C62" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>STD_157</t>
+          <t>Student_157</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>STD_118</t>
+          <t>Student_118</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>STD_085</t>
+          <t>Student_085</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="C65" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>STD_126</t>
+          <t>Student_126</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="C66" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>STD_168</t>
+          <t>Student_168</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>STD_246</t>
+          <t>Student_246</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>STD_110</t>
+          <t>Student_110</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>STD_173</t>
+          <t>Student_173</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="C70" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>STD_235</t>
+          <t>Student_235</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C71" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>STD_074</t>
+          <t>Student_074</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="C72" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>STD_159</t>
+          <t>Student_159</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="C73" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>STD_116</t>
+          <t>Student_116</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="C74" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>STD_076</t>
+          <t>Student_076</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>STD_238</t>
+          <t>Student_238</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="C76" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>STD_083</t>
+          <t>Student_083</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="C77" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>STD_030</t>
+          <t>Student_030</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="C78" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>STD_127</t>
+          <t>Student_127</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="C79" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>STD_080</t>
+          <t>Student_080</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>STD_087</t>
+          <t>Student_087</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>STD_006</t>
+          <t>Student_006</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>STD_057</t>
+          <t>Student_057</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="C83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>STD_187</t>
+          <t>Student_187</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="C84" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>STD_232</t>
+          <t>Student_232</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>STD_171</t>
+          <t>Student_171</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="C86" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>STD_066</t>
+          <t>Student_066</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="C87" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>STD_141</t>
+          <t>Student_141</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="C88" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>STD_125</t>
+          <t>Student_125</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>STD_214</t>
+          <t>Student_214</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="C90" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>STD_149</t>
+          <t>Student_149</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="C91" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>STD_032</t>
+          <t>Student_032</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="C92" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>STD_013</t>
+          <t>Student_013</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C93" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>88</v>
@@ -2492,592 +2492,592 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>STD_036</t>
+          <t>Student_036</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1.4</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>STD_029</t>
+          <t>Student_029</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C95" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>STD_043</t>
+          <t>Student_043</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="C96" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>STD_219</t>
+          <t>Student_219</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="C97" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>STD_023</t>
+          <t>Student_023</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="C98" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>STD_094</t>
+          <t>Student_094</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>STD_213</t>
+          <t>Student_213</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="C100" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>STD_102</t>
+          <t>Student_102</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>STD_052</t>
+          <t>Student_052</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="C102" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>STD_096</t>
+          <t>Student_096</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="C103" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>STD_144</t>
+          <t>Student_144</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="C104" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>STD_200</t>
+          <t>Student_200</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>STD_077</t>
+          <t>Student_077</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>STD_042</t>
+          <t>Student_042</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="C107" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>STD_114</t>
+          <t>Student_114</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="C108" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>STD_153</t>
+          <t>Student_153</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="C109" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>STD_079</t>
+          <t>Student_079</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>STD_148</t>
+          <t>Student_148</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>STD_027</t>
+          <t>Student_027</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="C112" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>STD_242</t>
+          <t>Student_242</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="C113" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="F113" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>STD_165</t>
+          <t>Student_165</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>STD_244</t>
+          <t>Student_244</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="C115" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>STD_138</t>
+          <t>Student_138</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="C116" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>STD_001</t>
+          <t>Student_001</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>STD_003</t>
+          <t>Student_003</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="C118" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>STD_078</t>
+          <t>Student_078</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C119" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>STD_047</t>
+          <t>Student_047</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="F120" t="n">
         <v>96</v>
@@ -3086,1692 +3086,1692 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>STD_101</t>
+          <t>Student_101</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>STD_128</t>
+          <t>Student_128</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>STD_151</t>
+          <t>Student_151</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F123" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>STD_249</t>
+          <t>Student_249</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>3.8</v>
       </c>
       <c r="C124" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>STD_091</t>
+          <t>Student_091</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="C125" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>STD_086</t>
+          <t>Student_086</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>STD_176</t>
+          <t>Student_176</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>STD_196</t>
+          <t>Student_196</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="C128" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>STD_099</t>
+          <t>Student_099</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="C129" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>STD_037</t>
+          <t>Student_037</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="C130" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>STD_062</t>
+          <t>Student_062</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="C131" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>STD_163</t>
+          <t>Student_163</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="C132" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F132" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>STD_140</t>
+          <t>Student_140</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C133" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>STD_012</t>
+          <t>Student_012</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="C134" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="F134" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>STD_245</t>
+          <t>Student_245</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>STD_199</t>
+          <t>Student_199</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C136" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>STD_028</t>
+          <t>Student_028</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="C137" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>STD_156</t>
+          <t>Student_156</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="C138" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="F138" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>STD_005</t>
+          <t>Student_005</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>STD_123</t>
+          <t>Student_123</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="C140" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="D140" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>STD_033</t>
+          <t>Student_033</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="C141" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="F141" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>STD_145</t>
+          <t>Student_145</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="C142" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>STD_179</t>
+          <t>Student_179</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="C143" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>STD_139</t>
+          <t>Student_139</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="C144" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="D144" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="F144" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>STD_063</t>
+          <t>Student_063</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="F145" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>STD_136</t>
+          <t>Student_136</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C146" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>STD_129</t>
+          <t>Student_129</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="C147" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>STD_227</t>
+          <t>Student_227</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="C148" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="F148" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>STD_206</t>
+          <t>Student_206</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C149" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>STD_071</t>
+          <t>Student_071</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="F150" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>STD_193</t>
+          <t>Student_193</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="C151" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>STD_065</t>
+          <t>Student_065</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C152" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="F152" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>STD_045</t>
+          <t>Student_045</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>STD_166</t>
+          <t>Student_166</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="C154" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>STD_041</t>
+          <t>Student_041</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="E155" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STD_124</t>
+          <t>Student_124</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>3.2</v>
       </c>
       <c r="C156" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>STD_154</t>
+          <t>Student_154</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="C157" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F157" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>STD_024</t>
+          <t>Student_024</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C158" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>STD_212</t>
+          <t>Student_212</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="C159" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>STD_184</t>
+          <t>Student_184</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C160" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>STD_082</t>
+          <t>Student_082</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>3.3</v>
       </c>
       <c r="C161" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>STD_040</t>
+          <t>Student_040</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="C162" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>STD_210</t>
+          <t>Student_210</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="C163" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="F163" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>STD_048</t>
+          <t>Student_048</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="C164" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="F164" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>STD_095</t>
+          <t>Student_095</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="C165" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="D165" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E165" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="F165" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>STD_191</t>
+          <t>Student_191</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="C166" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="D166" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>STD_162</t>
+          <t>Student_162</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C167" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>STD_044</t>
+          <t>Student_044</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C168" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>STD_146</t>
+          <t>Student_146</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="C169" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>STD_183</t>
+          <t>Student_183</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E170" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>STD_004</t>
+          <t>Student_004</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="F171" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>STD_106</t>
+          <t>Student_106</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="C172" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="F172" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>STD_054</t>
+          <t>Student_054</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="F173" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>STD_134</t>
+          <t>Student_134</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="C174" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F174" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>STD_228</t>
+          <t>Student_228</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E175" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F175" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>STD_194</t>
+          <t>Student_194</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="C176" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D176" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="F176" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>STD_233</t>
+          <t>Student_233</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="C177" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D177" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F177" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>STD_050</t>
+          <t>Student_050</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F178" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>STD_164</t>
+          <t>Student_164</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="C179" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="E179" t="n">
-        <v>8.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>STD_081</t>
+          <t>Student_081</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="C180" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E180" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="F180" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>STD_035</t>
+          <t>Student_035</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F181" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>STD_207</t>
+          <t>Student_207</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="F182" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>STD_008</t>
+          <t>Student_008</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="C183" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>STD_172</t>
+          <t>Student_172</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="C184" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>STD_111</t>
+          <t>Student_111</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="F185" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>STD_092</t>
+          <t>Student_092</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>3.2</v>
       </c>
       <c r="C186" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="F186" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>STD_084</t>
+          <t>Student_084</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C187" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D187" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F187" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>STD_224</t>
+          <t>Student_224</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="C188" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F188" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>STD_229</t>
+          <t>Student_229</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="F189" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>STD_090</t>
+          <t>Student_090</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="C190" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="F190" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>STD_009</t>
+          <t>Student_009</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="C191" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F191" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>STD_014</t>
+          <t>Student_014</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C192" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D192" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F192" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>STD_060</t>
+          <t>Student_060</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="F193" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>STD_216</t>
+          <t>Student_216</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="C194" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="F194" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>STD_132</t>
+          <t>Student_132</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1.9</v>
       </c>
       <c r="C195" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="F195" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>STD_018</t>
+          <t>Student_018</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C196" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="D196" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E196" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="F196" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>STD_167</t>
+          <t>Student_167</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="C197" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="E197" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="F197" t="n">
         <v>61</v>
@@ -4780,108 +4780,108 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>STD_073</t>
+          <t>Student_073</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="C198" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="F198" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>STD_221</t>
+          <t>Student_221</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="C199" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F199" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>STD_135</t>
+          <t>Student_135</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="C200" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="E200" t="n">
-        <v>8.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="F200" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>STD_205</t>
+          <t>Student_205</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>3.7</v>
       </c>
       <c r="C201" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F201" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>STD_231</t>
+          <t>Student_231</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="C202" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="F202" t="n">
         <v>88</v>
@@ -4890,108 +4890,108 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>STD_064</t>
+          <t>Student_064</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="C203" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>STD_055</t>
+          <t>Student_055</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="C204" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>STD_108</t>
+          <t>Student_108</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E205" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F205" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>STD_051</t>
+          <t>Student_051</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="F206" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>STD_240</t>
+          <t>Student_240</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="F207" t="n">
         <v>69</v>
@@ -5000,658 +5000,658 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>STD_175</t>
+          <t>Student_175</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="C208" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E208" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="F208" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>STD_209</t>
+          <t>Student_209</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="C209" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F209" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>STD_190</t>
+          <t>Student_190</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C210" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D210" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E210" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="F210" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>STD_247</t>
+          <t>Student_247</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="C211" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F211" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>STD_208</t>
+          <t>Student_208</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C212" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D212" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="E212" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="F212" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>STD_222</t>
+          <t>Student_222</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="C213" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="D213" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E213" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>STD_170</t>
+          <t>Student_170</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="C214" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="E214" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F214" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>STD_059</t>
+          <t>Student_059</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="C215" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>STD_049</t>
+          <t>Student_049</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="C216" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="D216" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F216" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>STD_089</t>
+          <t>Student_089</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="C217" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D217" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E217" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="F217" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>STD_022</t>
+          <t>Student_022</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E218" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F218" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>STD_058</t>
+          <t>Student_058</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C219" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="F219" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>STD_204</t>
+          <t>Student_204</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="C220" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="D220" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="E220" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F220" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>STD_161</t>
+          <t>Student_161</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E221" t="n">
         <v>6</v>
       </c>
       <c r="F221" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>STD_243</t>
+          <t>Student_243</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="C222" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="F222" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>STD_188</t>
+          <t>Student_188</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C223" t="n">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D223" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E223" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F223" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>STD_192</t>
+          <t>Student_192</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E224" t="n">
         <v>6</v>
       </c>
       <c r="F224" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>STD_130</t>
+          <t>Student_130</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="C225" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STD_038</t>
+          <t>Student_038</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="C226" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E226" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="F226" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>STD_158</t>
+          <t>Student_158</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="C227" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="E227" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F227" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>STD_236</t>
+          <t>Student_236</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="C228" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E228" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="F228" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>STD_002</t>
+          <t>Student_002</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F229" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>STD_053</t>
+          <t>Student_053</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C230" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>STD_150</t>
+          <t>Student_150</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E231" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F231" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>STD_131</t>
+          <t>Student_131</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E232" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="F232" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>STD_152</t>
+          <t>Student_152</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="C233" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="E233" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>STD_104</t>
+          <t>Student_104</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="D234" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E234" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="F234" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>STD_100</t>
+          <t>Student_100</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="C235" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="D235" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
       </c>
       <c r="F235" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>STD_117</t>
+          <t>Student_117</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E236" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="F236" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>STD_088</t>
+          <t>Student_088</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="C237" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="D237" t="n">
         <v>2</v>
       </c>
       <c r="E237" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="F237" t="n">
         <v>80</v>
@@ -5660,20 +5660,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>STD_203</t>
+          <t>Student_203</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>4.4</v>
       </c>
       <c r="C238" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="F238" t="n">
         <v>91</v>
@@ -5682,287 +5682,287 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>STD_075</t>
+          <t>Student_075</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="C239" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D239" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="F239" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>STD_215</t>
+          <t>Student_215</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C240" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>STD_211</t>
+          <t>Student_211</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C241" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>STD_122</t>
+          <t>Student_122</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="C242" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="D242" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E242" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F242" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>STD_250</t>
+          <t>Student_250</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="C243" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="D243" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E243" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F243" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>STD_021</t>
+          <t>Student_021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="C244" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="D244" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E244" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="F244" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>STD_189</t>
+          <t>Student_189</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="C245" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>STD_072</t>
+          <t>Student_072</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="C246" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STD_107</t>
+          <t>Student_107</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D247" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E247" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="F247" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>STD_015</t>
+          <t>Student_015</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="C248" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="D248" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="F248" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>STD_093</t>
+          <t>Student_093</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C249" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="D249" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="F249" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>STD_180</t>
+          <t>Student_180</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="C250" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E250" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F250" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STD_103</t>
+          <t>Student_103</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="C251" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F251" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/clean_student_data.xlsx
+++ b/clean_student_data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Student_ID</t>
+          <t>CodeNo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -468,2022 +468,2022 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Student_143</t>
+          <t>STD_143</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Student_007</t>
+          <t>STD_007</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="F3" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Student_098</t>
+          <t>STD_098</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Student_061</t>
+          <t>STD_061</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Student_113</t>
+          <t>STD_113</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Student_182</t>
+          <t>STD_182</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Student_198</t>
+          <t>STD_198</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="F8" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Student_185</t>
+          <t>STD_185</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="F9" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Student_010</t>
+          <t>STD_010</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F10" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Student_105</t>
+          <t>STD_105</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Student_201</t>
+          <t>STD_201</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="F12" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Student_217</t>
+          <t>STD_217</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F13" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Student_237</t>
+          <t>STD_237</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Student_241</t>
+          <t>STD_241</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F15" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Student_068</t>
+          <t>STD_068</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="F16" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Student_225</t>
+          <t>STD_225</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Student_195</t>
+          <t>STD_195</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="F18" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Student_016</t>
+          <t>STD_016</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="F19" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Student_178</t>
+          <t>STD_178</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="F20" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Student_025</t>
+          <t>STD_025</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Student_248</t>
+          <t>STD_248</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Student_020</t>
+          <t>STD_020</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Student_115</t>
+          <t>STD_115</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F24" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Student_069</t>
+          <t>STD_069</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="F25" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Student_177</t>
+          <t>STD_177</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Student_046</t>
+          <t>STD_046</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Student_056</t>
+          <t>STD_056</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Student_011</t>
+          <t>STD_011</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F29" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Student_031</t>
+          <t>STD_031</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="F30" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Student_121</t>
+          <t>STD_121</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F31" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Student_202</t>
+          <t>STD_202</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Student_034</t>
+          <t>STD_034</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F33" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Student_142</t>
+          <t>STD_142</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Student_220</t>
+          <t>STD_220</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="F35" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Student_026</t>
+          <t>STD_026</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="F36" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Student_112</t>
+          <t>STD_112</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Student_019</t>
+          <t>STD_019</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="F38" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Student_197</t>
+          <t>STD_197</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Student_181</t>
+          <t>STD_181</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="F40" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Student_160</t>
+          <t>STD_160</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Student_119</t>
+          <t>STD_119</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Student_097</t>
+          <t>STD_097</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D43" t="n">
         <v>2.7</v>
       </c>
-      <c r="C43" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3</v>
-      </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="F43" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Student_109</t>
+          <t>STD_109</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F44" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Student_186</t>
+          <t>STD_186</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="F45" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Student_223</t>
+          <t>STD_223</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="F46" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Student_017</t>
+          <t>STD_017</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="F47" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Student_147</t>
+          <t>STD_147</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1.7</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F48" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Student_070</t>
+          <t>STD_070</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Student_174</t>
+          <t>STD_174</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Student_039</t>
+          <t>STD_039</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="F51" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Student_133</t>
+          <t>STD_133</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Student_226</t>
+          <t>STD_226</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F53" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Student_239</t>
+          <t>STD_239</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="F54" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Student_120</t>
+          <t>STD_120</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="F55" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Student_137</t>
+          <t>STD_137</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="F56" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Student_067</t>
+          <t>STD_067</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="F57" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Student_218</t>
+          <t>STD_218</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="F58" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Student_155</t>
+          <t>STD_155</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="F59" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Student_169</t>
+          <t>STD_169</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="F60" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Student_230</t>
+          <t>STD_230</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="F61" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Student_234</t>
+          <t>STD_234</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F62" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Student_157</t>
+          <t>STD_157</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Student_118</t>
+          <t>STD_118</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Student_085</t>
+          <t>STD_085</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="F65" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Student_126</t>
+          <t>STD_126</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D66" t="n">
         <v>1.5</v>
       </c>
-      <c r="C66" t="n">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4</v>
-      </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F66" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Student_168</t>
+          <t>STD_168</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F67" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Student_246</t>
+          <t>STD_246</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="F68" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Student_110</t>
+          <t>STD_110</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Student_173</t>
+          <t>STD_173</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F70" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Student_235</t>
+          <t>STD_235</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="F71" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Student_074</t>
+          <t>STD_074</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="F72" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Student_159</t>
+          <t>STD_159</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="F73" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Student_116</t>
+          <t>STD_116</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Student_076</t>
+          <t>STD_076</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F75" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Student_238</t>
+          <t>STD_238</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F76" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Student_083</t>
+          <t>STD_083</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F77" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Student_030</t>
+          <t>STD_030</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="E78" t="n">
         <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Student_127</t>
+          <t>STD_127</t>
         </is>
       </c>
       <c r="B79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D79" t="n">
         <v>1.2</v>
       </c>
-      <c r="C79" t="n">
-        <v>7</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5</v>
-      </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="F79" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Student_080</t>
+          <t>STD_080</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Student_087</t>
+          <t>STD_087</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F81" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Student_006</t>
+          <t>STD_006</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F82" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Student_057</t>
+          <t>STD_057</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="F83" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Student_187</t>
+          <t>STD_187</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="F84" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Student_232</t>
+          <t>STD_232</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F85" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Student_171</t>
+          <t>STD_171</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="F86" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Student_066</t>
+          <t>STD_066</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Student_141</t>
+          <t>STD_141</t>
         </is>
       </c>
       <c r="B88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D88" t="n">
         <v>1.5</v>
       </c>
-      <c r="C88" t="n">
-        <v>6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4</v>
-      </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Student_125</t>
+          <t>STD_125</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="F89" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Student_214</t>
+          <t>STD_214</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Student_149</t>
+          <t>STD_149</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Student_032</t>
+          <t>STD_032</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F92" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Student_013</t>
+          <t>STD_013</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="F93" t="n">
         <v>88</v>
@@ -2492,592 +2492,592 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Student_036</t>
+          <t>STD_036</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1.4</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="F94" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Student_029</t>
+          <t>STD_029</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="F95" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Student_043</t>
+          <t>STD_043</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="F96" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Student_219</t>
+          <t>STD_219</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="F97" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Student_023</t>
+          <t>STD_023</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="F98" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Student_094</t>
+          <t>STD_094</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="F99" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Student_213</t>
+          <t>STD_213</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="F100" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Student_102</t>
+          <t>STD_102</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Student_052</t>
+          <t>STD_052</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Student_096</t>
+          <t>STD_096</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F103" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Student_144</t>
+          <t>STD_144</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="F104" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Student_200</t>
+          <t>STD_200</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="F105" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Student_077</t>
+          <t>STD_077</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E106" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="F106" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Student_042</t>
+          <t>STD_042</t>
         </is>
       </c>
       <c r="B107" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C107" t="n">
         <v>1.9</v>
       </c>
-      <c r="C107" t="n">
-        <v>6</v>
-      </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Student_114</t>
+          <t>STD_114</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="F108" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Student_153</t>
+          <t>STD_153</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="F109" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Student_079</t>
+          <t>STD_079</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F110" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Student_148</t>
+          <t>STD_148</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
         <v>7</v>
       </c>
-      <c r="D111" t="n">
-        <v>5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5</v>
-      </c>
       <c r="F111" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Student_027</t>
+          <t>STD_027</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="F112" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Student_242</t>
+          <t>STD_242</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Student_165</t>
+          <t>STD_165</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F114" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Student_244</t>
+          <t>STD_244</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F115" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Student_138</t>
+          <t>STD_138</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="F116" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Student_001</t>
+          <t>STD_001</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="F117" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Student_003</t>
+          <t>STD_003</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Student_078</t>
+          <t>STD_078</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F119" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Student_047</t>
+          <t>STD_047</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="F120" t="n">
         <v>96</v>
@@ -3086,1692 +3086,1692 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Student_101</t>
+          <t>STD_101</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E121" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F121" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Student_128</t>
+          <t>STD_128</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="F122" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Student_151</t>
+          <t>STD_151</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Student_249</t>
+          <t>STD_249</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>3.8</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="E124" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Student_091</t>
+          <t>STD_091</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E125" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F125" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Student_086</t>
+          <t>STD_086</t>
         </is>
       </c>
       <c r="B126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C126" t="n">
         <v>3</v>
       </c>
-      <c r="C126" t="n">
-        <v>4</v>
-      </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="E126" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="F126" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Student_176</t>
+          <t>STD_176</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E127" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F127" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Student_196</t>
+          <t>STD_196</t>
         </is>
       </c>
       <c r="B128" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D128" t="n">
         <v>2.9</v>
       </c>
-      <c r="C128" t="n">
-        <v>4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>3</v>
-      </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Student_099</t>
+          <t>STD_099</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E129" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Student_037</t>
+          <t>STD_037</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E130" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="F130" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Student_062</t>
+          <t>STD_062</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="E131" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="F131" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Student_163</t>
+          <t>STD_163</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="F132" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Student_140</t>
+          <t>STD_140</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F133" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Student_012</t>
+          <t>STD_012</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F134" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Student_245</t>
+          <t>STD_245</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="F135" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Student_199</t>
+          <t>STD_199</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Student_028</t>
+          <t>STD_028</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="E137" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F137" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Student_156</t>
+          <t>STD_156</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="F138" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Student_005</t>
+          <t>STD_005</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="F139" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Student_123</t>
+          <t>STD_123</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E140" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F140" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Student_033</t>
+          <t>STD_033</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E141" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="F141" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Student_145</t>
+          <t>STD_145</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F142" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Student_179</t>
+          <t>STD_179</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E143" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="F143" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Student_139</t>
+          <t>STD_139</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="F144" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Student_063</t>
+          <t>STD_063</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E145" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="F145" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Student_136</t>
+          <t>STD_136</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="E146" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F146" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Student_129</t>
+          <t>STD_129</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="F147" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Student_227</t>
+          <t>STD_227</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E148" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="F148" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Student_206</t>
+          <t>STD_206</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="F149" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Student_071</t>
+          <t>STD_071</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E150" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="F150" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Student_193</t>
+          <t>STD_193</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F151" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Student_065</t>
+          <t>STD_065</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E152" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="F152" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Student_045</t>
+          <t>STD_045</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F153" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Student_166</t>
+          <t>STD_166</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F154" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Student_041</t>
+          <t>STD_041</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E155" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F155" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Student_124</t>
+          <t>STD_124</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>3.2</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="F156" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Student_154</t>
+          <t>STD_154</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F157" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Student_024</t>
+          <t>STD_024</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E158" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Student_212</t>
+          <t>STD_212</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E159" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="F159" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Student_184</t>
+          <t>STD_184</t>
         </is>
       </c>
       <c r="B160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D160" t="n">
         <v>1.9</v>
       </c>
-      <c r="C160" t="n">
-        <v>6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>4</v>
-      </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Student_082</t>
+          <t>STD_082</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>3.3</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="F161" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Student_040</t>
+          <t>STD_040</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F162" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Student_210</t>
+          <t>STD_210</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="F163" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Student_048</t>
+          <t>STD_048</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="F164" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Student_095</t>
+          <t>STD_095</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="C165" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F165" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Student_191</t>
+          <t>STD_191</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="E166" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F166" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Student_162</t>
+          <t>STD_162</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C167" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="F167" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Student_044</t>
+          <t>STD_044</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E168" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F168" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Student_146</t>
+          <t>STD_146</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="D169" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="F169" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Student_183</t>
+          <t>STD_183</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E170" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="F170" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Student_004</t>
+          <t>STD_004</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E171" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="F171" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Student_106</t>
+          <t>STD_106</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E172" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Student_054</t>
+          <t>STD_054</t>
         </is>
       </c>
       <c r="B173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D173" t="n">
         <v>4</v>
       </c>
-      <c r="C173" t="n">
-        <v>2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
       <c r="E173" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="F173" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Student_134</t>
+          <t>STD_134</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="E174" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Student_228</t>
+          <t>STD_228</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="F175" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Student_194</t>
+          <t>STD_194</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F176" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Student_233</t>
+          <t>STD_233</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E177" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="F177" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Student_050</t>
+          <t>STD_050</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F178" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Student_164</t>
+          <t>STD_164</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Student_081</t>
+          <t>STD_081</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E180" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Student_035</t>
+          <t>STD_035</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="E181" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Student_207</t>
+          <t>STD_207</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="E182" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="F182" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Student_008</t>
+          <t>STD_008</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="E183" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="F183" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Student_172</t>
+          <t>STD_172</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="D184" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E184" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Student_111</t>
+          <t>STD_111</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D185" t="n">
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="F185" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Student_092</t>
+          <t>STD_092</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>3.2</v>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E186" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="F186" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Student_084</t>
+          <t>STD_084</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F187" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Student_224</t>
+          <t>STD_224</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F188" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Student_229</t>
+          <t>STD_229</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E189" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Student_090</t>
+          <t>STD_090</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E190" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="F190" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Student_009</t>
+          <t>STD_009</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F191" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Student_014</t>
+          <t>STD_014</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F192" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Student_060</t>
+          <t>STD_060</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="E193" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="F193" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Student_216</t>
+          <t>STD_216</t>
         </is>
       </c>
       <c r="B194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D194" t="n">
         <v>2.6</v>
       </c>
-      <c r="C194" t="n">
-        <v>4</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3</v>
-      </c>
       <c r="E194" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="F194" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Student_132</t>
+          <t>STD_132</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1.9</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="F195" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Student_018</t>
+          <t>STD_018</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E196" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Student_167</t>
+          <t>STD_167</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D197" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="E197" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="F197" t="n">
         <v>61</v>
@@ -4780,108 +4780,108 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Student_073</t>
+          <t>STD_073</t>
         </is>
       </c>
       <c r="B198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C198" t="n">
         <v>4.3</v>
       </c>
-      <c r="C198" t="n">
-        <v>2</v>
-      </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E198" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F198" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Student_221</t>
+          <t>STD_221</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F199" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Student_135</t>
+          <t>STD_135</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="D200" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E200" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Student_205</t>
+          <t>STD_205</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>3.7</v>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F201" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Student_231</t>
+          <t>STD_231</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E202" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="F202" t="n">
         <v>88</v>
@@ -4890,108 +4890,108 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Student_064</t>
+          <t>STD_064</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Student_055</t>
+          <t>STD_055</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E204" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="F204" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Student_108</t>
+          <t>STD_108</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E205" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F205" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Student_051</t>
+          <t>STD_051</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="E206" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="F206" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Student_240</t>
+          <t>STD_240</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E207" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="F207" t="n">
         <v>69</v>
@@ -5000,658 +5000,658 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Student_175</t>
+          <t>STD_175</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="C208" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D208" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Student_209</t>
+          <t>STD_209</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E209" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F209" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Student_190</t>
+          <t>STD_190</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D210" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="E210" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F210" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Student_247</t>
+          <t>STD_247</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="E211" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="F211" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Student_208</t>
+          <t>STD_208</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D212" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="E212" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="F212" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Student_222</t>
+          <t>STD_222</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="C213" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="D213" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E213" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="F213" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Student_170</t>
+          <t>STD_170</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="E214" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F214" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Student_059</t>
+          <t>STD_059</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="E215" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="F215" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Student_049</t>
+          <t>STD_049</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="E216" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F216" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Student_089</t>
+          <t>STD_089</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="D217" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E217" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="F217" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Student_022</t>
+          <t>STD_022</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="C218" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="E218" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F218" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Student_058</t>
+          <t>STD_058</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E219" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="F219" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Student_204</t>
+          <t>STD_204</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="D220" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="E220" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F220" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Student_161</t>
+          <t>STD_161</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E221" t="n">
         <v>6</v>
       </c>
       <c r="F221" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Student_243</t>
+          <t>STD_243</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E222" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F222" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Student_188</t>
+          <t>STD_188</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="C223" t="n">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D223" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F223" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Student_192</t>
+          <t>STD_192</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="D224" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="E224" t="n">
         <v>6</v>
       </c>
       <c r="F224" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Student_130</t>
+          <t>STD_130</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D225" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Student_038</t>
+          <t>STD_038</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D226" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E226" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="F226" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Student_158</t>
+          <t>STD_158</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D227" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="E227" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F227" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Student_236</t>
+          <t>STD_236</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E228" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F228" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Student_002</t>
+          <t>STD_002</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="D229" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="E229" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F229" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Student_053</t>
+          <t>STD_053</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E230" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Student_150</t>
+          <t>STD_150</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="D231" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E231" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="F231" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Student_131</t>
+          <t>STD_131</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="C232" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="D232" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E232" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="F232" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Student_152</t>
+          <t>STD_152</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="D233" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E233" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F233" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Student_104</t>
+          <t>STD_104</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E234" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="F234" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Student_100</t>
+          <t>STD_100</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
       </c>
       <c r="F235" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Student_117</t>
+          <t>STD_117</t>
         </is>
       </c>
       <c r="B236" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D236" t="n">
         <v>2.9</v>
       </c>
-      <c r="C236" t="n">
-        <v>4</v>
-      </c>
-      <c r="D236" t="n">
-        <v>3</v>
-      </c>
       <c r="E236" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="F236" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Student_088</t>
+          <t>STD_088</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="D237" t="n">
         <v>2</v>
       </c>
       <c r="E237" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="F237" t="n">
         <v>80</v>
@@ -5660,20 +5660,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Student_203</t>
+          <t>STD_203</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>4.4</v>
       </c>
       <c r="C238" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="E238" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="F238" t="n">
         <v>91</v>
@@ -5682,287 +5682,287 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Student_075</t>
+          <t>STD_075</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E239" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="F239" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Student_215</t>
+          <t>STD_215</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E240" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="F240" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Student_211</t>
+          <t>STD_211</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E241" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="F241" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Student_122</t>
+          <t>STD_122</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="D242" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E242" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F242" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Student_250</t>
+          <t>STD_250</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="E243" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F243" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Student_021</t>
+          <t>STD_021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="D244" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E244" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="F244" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Student_189</t>
+          <t>STD_189</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="E245" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="F245" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Student_072</t>
+          <t>STD_072</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E246" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="F246" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Student_107</t>
+          <t>STD_107</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E247" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Student_015</t>
+          <t>STD_015</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="C248" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="E248" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F248" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Student_093</t>
+          <t>STD_093</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E249" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F249" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Student_180</t>
+          <t>STD_180</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E250" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F250" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Student_103</t>
+          <t>STD_103</t>
         </is>
       </c>
       <c r="B251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C251" t="n">
         <v>2.6</v>
       </c>
-      <c r="C251" t="n">
-        <v>5</v>
-      </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F251" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
